--- a/output/inference_results/test_sheets/batch_002/test_sheet (18).xlsx
+++ b/output/inference_results/test_sheets/batch_002/test_sheet (18).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,25 +424,20 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>项目</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>项目</t>
+          <t>结果</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>结果</t>
+          <t>参考值</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
-        <is>
-          <t>参考值</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
         <is>
           <t>单位</t>
         </is>
@@ -451,91 +446,71 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>促甲状腺激素</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>促甲状腺激素</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7.080</t>
+          <t>0.27-4.20</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.27-4.20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>uIU/mL</t>
+          <t>IU/mL</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>游离甲状腺素</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>游离甲状腺素</t>
+          <t>18.15</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>18.15</t>
+          <t>12.0-22.0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.0-22.0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>pmol/L</t>
+          <t>mol/L</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>游离三碘甲状腺原氨酸</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>游离三碘甲状腺原氨酸</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>3.10-6.80</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.10-6.80</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>pmol/L</t>
+          <t>mol/L</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
-        <is>
-          <t>如对检验结果咨询，请在48小时内与检验科联系</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
         <is>
           <t>如对检验结果咨询，请在48小时内与检验科联系</t>
         </is>
